--- a/DB1.xlsx
+++ b/DB1.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CART-GGP\Tania\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="9405" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="9410" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" r:id="rId1"/>
     <sheet name="2010" sheetId="3" r:id="rId2"/>
     <sheet name="2011" sheetId="4" r:id="rId3"/>
-    <sheet name="2015" sheetId="2" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
+    <sheet name="2013" sheetId="7" r:id="rId4"/>
+    <sheet name="2014" sheetId="6" r:id="rId5"/>
+    <sheet name="2015" sheetId="2" r:id="rId6"/>
+    <sheet name="2016" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="62">
   <si>
     <t>Forest</t>
   </si>
@@ -197,12 +199,30 @@
   <si>
     <t>Patch</t>
   </si>
+  <si>
+    <t>melghat</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Tiger</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Standard Residuals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +275,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +309,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -344,7 +401,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
@@ -361,6 +418,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -646,26 +715,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -703,12 +772,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1709671500</v>
+        <v>2099671500</v>
       </c>
       <c r="C2">
         <v>8706600</v>
@@ -727,7 +796,7 @@
       </c>
       <c r="I2">
         <f>B2/1000000</f>
-        <v>1709.6714999999999</v>
+        <v>2099.6714999999999</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:L17" si="0">C2/1000000</f>
@@ -745,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -787,12 +856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>9734779800</v>
+        <v>17418779800</v>
       </c>
       <c r="C4">
         <v>89972100</v>
@@ -804,15 +873,14 @@
         <v>12028343400</v>
       </c>
       <c r="F4">
-        <f>1+1+1+1+1+1</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>9734.7798000000003</v>
+        <f>B4/1000000</f>
+        <v>17418.7798</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -827,16 +895,15 @@
         <v>12028.3434</v>
       </c>
       <c r="M4">
-        <f>1+1+1+1+1+1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3638700</v>
+        <v>33638700</v>
       </c>
       <c r="C5">
         <v>333900</v>
@@ -854,8 +921,8 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>3.6387</v>
+        <f>B5/1000000</f>
+        <v>33.6387</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -873,12 +940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>3313800</v>
+        <v>83313800</v>
       </c>
       <c r="C6">
         <v>135000</v>
@@ -897,7 +964,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>3.3138000000000001</v>
+        <v>83.313800000000001</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -915,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,8 +999,7 @@
         <v>1689217200</v>
       </c>
       <c r="F7">
-        <f>1+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
@@ -955,11 +1021,10 @@
         <v>1689.2172</v>
       </c>
       <c r="M7">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,12 +1066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>123426900</v>
+        <v>163426900</v>
       </c>
       <c r="C9">
         <v>2300400</v>
@@ -1025,7 +1090,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>123.4269</v>
+        <v>163.42689999999999</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
@@ -1043,12 +1108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>442317600</v>
+        <v>842317600</v>
       </c>
       <c r="C10">
         <v>6632100</v>
@@ -1067,7 +1132,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>442.31760000000003</v>
+        <v>842.31759999999997</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
@@ -1085,12 +1150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>102497400</v>
+        <v>562497400</v>
       </c>
       <c r="C11">
         <v>64486800</v>
@@ -1109,10 +1174,10 @@
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>102.4974</v>
+        <v>562.49739999999997</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f>C11/1000000</f>
         <v>64.486800000000002</v>
       </c>
       <c r="K11">
@@ -1127,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1169,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1211,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1253,12 +1318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1217763000</v>
+        <v>2017763000</v>
       </c>
       <c r="C15">
         <v>17232300</v>
@@ -1270,14 +1335,14 @@
         <v>3670145100</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>1217.7629999999999</v>
+        <f>B15/1000000</f>
+        <v>2017.7629999999999</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -1292,10 +1357,10 @@
         <v>3670.1451000000002</v>
       </c>
       <c r="M15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,12 +1402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>14643000</v>
+        <v>20643000</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1360,8 +1425,8 @@
         <v>21</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>14.643000000000001</v>
+        <f>B17/1000000</f>
+        <v>20.643000000000001</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -1379,12 +1444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>34711200</v>
+        <v>144711200</v>
       </c>
       <c r="C18">
         <v>4501800</v>
@@ -1396,14 +1461,14 @@
         <v>546568200</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>34.711199999999998</v>
+        <f>B18/1000000</f>
+        <v>144.71119999999999</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
@@ -1418,10 +1483,10 @@
         <v>546.56820000000005</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1463,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,11 +1570,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="15">
+        <f>SUM(I2:I20)</f>
+        <v>27441.757899999993</v>
+      </c>
+      <c r="J21" s="15">
+        <f>SUM(J2:J20)</f>
+        <v>386.67374999999998</v>
+      </c>
+      <c r="K21" s="15">
+        <f>SUM(K2:K20)</f>
+        <v>4400.1107999999995</v>
+      </c>
+      <c r="L21" s="15">
+        <f>SUM(L2:L20)</f>
+        <v>40861.141200000013</v>
+      </c>
+      <c r="M21" s="15">
+        <f>SUM(M2:M20)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <f>SUM(B2:B21)</f>
-        <v>17441757900</v>
+        <v>27441757900</v>
       </c>
       <c r="C22" s="3">
         <f>SUM(C2:C21)</f>
@@ -1523,307 +1613,135 @@
         <f>SUM(E2:E21)</f>
         <v>40861141200</v>
       </c>
-      <c r="F22" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="F22">
+        <f>SUM(F2:F21)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.72551374189534301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.52637018967898241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.39104738673012029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1.6090179887109204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4">
-        <v>40.281171357538959</v>
-      </c>
-      <c r="D35" s="4">
-        <v>10.07029283938474</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3.8897375623965993</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2.5046377037002188E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4">
-        <v>14</v>
-      </c>
-      <c r="C36" s="4">
-        <v>36.245144431934698</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2.5889388879953357</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="5">
-        <v>18</v>
-      </c>
-      <c r="C37" s="5">
-        <v>76.526315789473657</v>
-      </c>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4">
-        <v>-0.25140136403760427</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0.57754043724218118</v>
-      </c>
-      <c r="D40" s="4">
-        <v>-0.43529655730787148</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0.66998299934011696</v>
-      </c>
-      <c r="F40" s="4">
-        <v>-1.4901024055688625</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.98729967749365399</v>
-      </c>
-      <c r="H40" s="4">
-        <v>-1.4901024055688625</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0.98729967749365399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="4">
-        <v>2.363167433310862E-4</v>
-      </c>
-      <c r="C41" s="4">
-        <v>4.1182530167392704E-4</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.57382764577732492</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.57518796833904617</v>
-      </c>
-      <c r="F41" s="4">
-        <v>-6.4696068144688636E-4</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1.1195941681090588E-3</v>
-      </c>
-      <c r="H41" s="4">
-        <v>-6.4696068144688636E-4</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1.1195941681090588E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="4">
-        <v>-1.56472149961118E-2</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1.3564674835660937E-2</v>
-      </c>
-      <c r="D42" s="4">
-        <v>-1.1535267292199263</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.26800803636529857</v>
-      </c>
-      <c r="F42" s="4">
-        <v>-4.4740549009571008E-2</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1.3446119017347408E-2</v>
-      </c>
-      <c r="H42" s="4">
-        <v>-4.4740549009571008E-2</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1.3446119017347408E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1.586163055572879E-3</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2.3397571077722603E-3</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0.67791782758301067</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0.50887368445900316</v>
-      </c>
-      <c r="F43" s="4">
-        <v>-3.4321168421381286E-3</v>
-      </c>
-      <c r="G43" s="4">
-        <v>6.6044429532838862E-3</v>
-      </c>
-      <c r="H43" s="4">
-        <v>-3.4321168421381286E-3</v>
-      </c>
-      <c r="I43" s="4">
-        <v>6.6044429532838862E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="5">
-        <v>3.8486249131076126E-4</v>
-      </c>
-      <c r="C44" s="5">
-        <v>3.8263858377066606E-4</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1.005812031599584</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0.33157467334193302</v>
-      </c>
-      <c r="F44" s="5">
-        <v>-4.3581564944428496E-4</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1.2055406320658074E-3</v>
-      </c>
-      <c r="H44" s="5">
-        <v>-4.3581564944428496E-4</v>
-      </c>
-      <c r="I44" s="5">
-        <v>1.2055406320658074E-3</v>
-      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,26 +1753,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1870,9 +1788,7 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +1808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1907,9 +1823,6 @@
       </c>
       <c r="E2">
         <v>682414200</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>6</v>
@@ -1931,10 +1844,10 @@
         <v>682.41420000000005</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1949,9 +1862,6 @@
       </c>
       <c r="E3">
         <v>3277463400</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>
@@ -1976,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1992,9 +1902,6 @@
       <c r="E4">
         <v>9875529900</v>
       </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2015,10 +1922,10 @@
         <v>9875.5298999999995</v>
       </c>
       <c r="M4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2034,9 +1941,6 @@
       <c r="E5">
         <v>851664600</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2060,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2076,9 +1980,6 @@
       <c r="E6">
         <v>817271100</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2102,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2118,9 +2019,6 @@
       <c r="E7">
         <v>1175283000</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -2160,9 +2058,6 @@
       <c r="E8">
         <v>154999800</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
@@ -2186,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2202,9 +2097,6 @@
       <c r="E9">
         <v>517283100</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2228,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2244,9 +2136,6 @@
       <c r="E10">
         <v>1747400400</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2270,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2286,9 +2175,6 @@
       <c r="E11">
         <v>2448579600</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2312,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -2328,9 +2214,6 @@
       <c r="E12">
         <v>2583852300</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2370,9 +2253,6 @@
       <c r="E13">
         <v>1928717100</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2393,10 +2273,10 @@
         <v>1928.7171000000001</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -2412,9 +2292,6 @@
       <c r="E14">
         <v>666698400</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
@@ -2438,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2454,9 +2331,6 @@
       <c r="E15">
         <v>2393364600</v>
       </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2477,10 +2351,10 @@
         <v>2393.3645999999999</v>
       </c>
       <c r="M15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2496,9 +2370,6 @@
       <c r="E16" s="8">
         <v>290862999</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="H16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2522,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2538,9 +2409,6 @@
       <c r="E17">
         <v>552625200</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2564,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -2580,9 +2448,6 @@
       <c r="E18">
         <v>515498400</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>22</v>
       </c>
@@ -2606,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2622,9 +2487,6 @@
       <c r="E19">
         <v>759427200</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="H19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2648,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2664,9 +2526,6 @@
       <c r="E20">
         <v>627543900</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2690,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
@@ -2710,10 +2569,7 @@
         <f>SUM(E2:E20)</f>
         <v>31866479199</v>
       </c>
-      <c r="F21" s="9">
-        <f>SUM(F2:F20)</f>
-        <v>13</v>
-      </c>
+      <c r="F21" s="13"/>
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
@@ -2735,22 +2591,22 @@
       </c>
       <c r="M21" s="9">
         <f>SUM(M2:M20)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -2758,7 +2614,7 @@
         <v>0.88118468811789719</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -2766,7 +2622,7 @@
         <v>0.77648645457343579</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -2774,7 +2630,7 @@
         <v>0.71262544159441743</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -2782,7 +2638,7 @@
         <v>0.97958958123206219</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -2790,12 +2646,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>37</v>
@@ -2813,7 +2669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -2833,7 +2689,7 @@
         <v>1.7935059770151612E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -2849,7 +2705,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2863,8 +2719,8 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
         <v>42</v>
@@ -2891,7 +2747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
@@ -2920,7 +2776,7 @@
         <v>0.65384520183475536</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
@@ -2949,7 +2805,7 @@
         <v>5.5952015811302214E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
@@ -2962,7 +2818,7 @@
       <c r="D42" s="4">
         <v>1.8315425004896133</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="10">
         <v>8.8378602602768683E-2</v>
       </c>
       <c r="F42" s="4">
@@ -2978,7 +2834,7 @@
         <v>1.092949181050594E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -3007,7 +2863,7 @@
         <v>1.0763326753167483E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
@@ -3046,27 +2902,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3082,9 +2938,7 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F1" s="16"/>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3104,7 +2958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3120,9 +2974,7 @@
       <c r="E2">
         <v>600045300</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
+      <c r="F2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3146,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3162,9 +3014,7 @@
       <c r="E3">
         <v>2342673900</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
+      <c r="F3" s="17"/>
       <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3188,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -3204,9 +3054,7 @@
       <c r="E4">
         <v>7137090900</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
+      <c r="F4" s="17"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
@@ -3227,10 +3075,10 @@
         <v>7137.0909000000001</v>
       </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3246,9 +3094,7 @@
       <c r="E5">
         <v>846003600</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
+      <c r="F5" s="17"/>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3272,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3288,9 +3134,7 @@
       <c r="E6">
         <v>709200900</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
+      <c r="F6" s="17"/>
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3314,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -3330,9 +3174,7 @@
       <c r="E7">
         <v>1222413300</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
+      <c r="F7" s="17"/>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
@@ -3356,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -3372,9 +3214,7 @@
       <c r="E8">
         <v>137300400</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
+      <c r="F8" s="17"/>
       <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
@@ -3398,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -3414,9 +3254,7 @@
       <c r="E9">
         <v>137300400</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
@@ -3440,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -3456,9 +3294,7 @@
       <c r="E10">
         <v>1089158400</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
+      <c r="F10" s="17"/>
       <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
@@ -3482,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -3498,9 +3334,7 @@
       <c r="E11">
         <v>1665306900</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
+      <c r="F11" s="17"/>
       <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
@@ -3524,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -3540,9 +3374,7 @@
       <c r="E12">
         <v>3475050300</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
+      <c r="F12" s="17"/>
       <c r="H12" s="3" t="s">
         <v>16</v>
       </c>
@@ -3566,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -3582,9 +3414,7 @@
       <c r="E13">
         <v>1506657600</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
+      <c r="F13" s="17"/>
       <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
@@ -3608,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -3624,9 +3454,7 @@
       <c r="E14">
         <v>178644600</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
+      <c r="F14" s="17"/>
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
@@ -3650,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -3666,9 +3494,7 @@
       <c r="E15">
         <v>3356817300</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
+      <c r="F15" s="17"/>
       <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
@@ -3689,10 +3515,10 @@
         <v>3356.8173000000002</v>
       </c>
       <c r="M15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -3708,9 +3534,7 @@
       <c r="E16">
         <v>290862900</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
+      <c r="F16" s="17"/>
       <c r="H16" s="3" t="s">
         <v>20</v>
       </c>
@@ -3734,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -3750,9 +3574,7 @@
       <c r="E17">
         <v>532957500</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
+      <c r="F17" s="17"/>
       <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
@@ -3776,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -3792,9 +3614,7 @@
       <c r="E18">
         <v>323117100</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
+      <c r="F18" s="17"/>
       <c r="H18" s="3" t="s">
         <v>22</v>
       </c>
@@ -3818,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -3834,9 +3654,7 @@
       <c r="E19">
         <v>1225572300</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
+      <c r="F19" s="17"/>
       <c r="H19" s="3" t="s">
         <v>23</v>
       </c>
@@ -3860,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -3876,9 +3694,7 @@
       <c r="E20">
         <v>137811600</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
+      <c r="F20" s="17"/>
       <c r="H20" s="3" t="s">
         <v>24</v>
       </c>
@@ -3902,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9">
         <f>SUM(B2:B20)</f>
@@ -3920,10 +3736,7 @@
         <f>SUM(E2:E20)</f>
         <v>26913985200</v>
       </c>
-      <c r="F21" s="9">
-        <f>SUM(F2:F20)</f>
-        <v>10</v>
-      </c>
+      <c r="F21" s="18"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9">
         <f>SUM(I2:I20)</f>
@@ -3943,22 +3756,22 @@
       </c>
       <c r="M21" s="9">
         <f>SUM(M2:M20)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -3966,7 +3779,7 @@
         <v>0.69964096754615757</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -3974,7 +3787,7 @@
         <v>0.48949748346892352</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -3982,7 +3795,7 @@
         <v>0.34363962160290168</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -3990,7 +3803,7 @@
         <v>0.78121699992109939</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -3998,12 +3811,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>37</v>
@@ -4021,7 +3834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -4041,7 +3854,7 @@
         <v>3.9998522682905963E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -4057,7 +3870,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -4071,8 +3884,8 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
         <v>42</v>
@@ -4099,7 +3912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
@@ -4128,7 +3941,7 @@
         <v>0.68805362741474763</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -4157,7 +3970,7 @@
         <v>2.1544399260863391E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
@@ -4186,7 +3999,7 @@
         <v>1.1089452137576755E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -4199,7 +4012,7 @@
       <c r="D43" s="4">
         <v>-2.3834796171408712</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="10">
         <v>3.1860480579869246E-2</v>
       </c>
       <c r="F43" s="4">
@@ -4215,7 +4028,7 @@
         <v>-1.3683482844619854E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
@@ -4228,7 +4041,7 @@
       <c r="D44" s="5">
         <v>2.9410543946590093</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="11">
         <v>1.0734256193242437E-2</v>
       </c>
       <c r="F44" s="5">
@@ -4251,37 +4064,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -4289,17 +4095,17 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
+      <c r="I1" s="19" t="s">
+        <v>1</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -4310,1153 +4116,1296 @@
       <c r="M1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1734433200</v>
+        <v>22270500</v>
       </c>
       <c r="C2">
-        <v>14997600</v>
+        <v>1561877100</v>
       </c>
       <c r="D2">
-        <v>320272200</v>
+        <v>453477600</v>
       </c>
       <c r="E2">
-        <v>802157400</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>437036400</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2">
-        <f>B2/O$2</f>
-        <v>1734.4331999999999</v>
+      <c r="I2" s="20">
+        <f>B2/1000000</f>
+        <v>22.270499999999998</v>
       </c>
       <c r="J2">
-        <f>C2/O$2</f>
-        <v>14.9976</v>
+        <f>C2/1000000</f>
+        <v>1561.8770999999999</v>
       </c>
       <c r="K2">
-        <f>D2/O$2</f>
-        <v>320.2722</v>
+        <f>D2/1000000</f>
+        <v>453.4776</v>
       </c>
       <c r="L2">
-        <f>E2/O$2</f>
-        <v>802.15740000000005</v>
+        <f>E2/1000000</f>
+        <v>437.03640000000001</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1626832800</v>
+        <v>12245400</v>
       </c>
       <c r="C3">
-        <v>17022600</v>
+        <v>1412039700</v>
       </c>
       <c r="D3">
-        <v>767100600</v>
+        <v>258881400</v>
       </c>
       <c r="E3">
-        <v>2860431300</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>2709850500</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I20" si="0">B3/O$2</f>
-        <v>1626.8327999999999</v>
+      <c r="I3" s="20">
+        <f t="shared" ref="I3:I20" si="0">B3/1000000</f>
+        <v>12.2454</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J20" si="1">C3/O$2</f>
-        <v>17.022600000000001</v>
+        <f t="shared" ref="J3:J20" si="1">C3/1000000</f>
+        <v>1412.0397</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K20" si="2">D3/O$2</f>
-        <v>767.10059999999999</v>
+        <f t="shared" ref="K3:K20" si="2">D3/1000000</f>
+        <v>258.88139999999999</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L20" si="3">E3/O$2</f>
-        <v>2860.4313000000002</v>
+        <f t="shared" ref="L3:L20" si="3">E3/1000000</f>
+        <v>2709.8505</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>16220096100</v>
+        <v>221722200</v>
       </c>
       <c r="C4">
-        <v>170436600</v>
+        <v>8013296700</v>
       </c>
       <c r="D4">
-        <v>2568812400</v>
+        <v>3798331200</v>
       </c>
       <c r="E4">
-        <v>7172214300</v>
-      </c>
-      <c r="F4">
-        <f>1+1+1+1</f>
-        <v>4</v>
+        <v>10542843900</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>16220.096100000001</v>
+      <c r="I4" s="20">
+        <f t="shared" si="0"/>
+        <v>221.72219999999999</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>170.4366</v>
+        <v>8013.2966999999999</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>2568.8123999999998</v>
+        <v>3798.3312000000001</v>
       </c>
       <c r="L4">
         <f t="shared" si="3"/>
-        <v>7172.2142999999996</v>
+        <v>10542.8439</v>
       </c>
       <c r="M4">
-        <f>1+1+1+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>70103700</v>
+        <v>6237000</v>
       </c>
       <c r="C5">
-        <v>4320900</v>
+        <v>4543200</v>
       </c>
       <c r="D5">
-        <v>93330000</v>
+        <v>138835800</v>
       </c>
       <c r="E5">
-        <v>880782300</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>774804600</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>70.103700000000003</v>
+      <c r="I5" s="20">
+        <f t="shared" si="0"/>
+        <v>6.2370000000000001</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>4.3209</v>
+        <v>4.5431999999999997</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>93.33</v>
+        <v>138.83580000000001</v>
       </c>
       <c r="L5">
         <f t="shared" si="3"/>
-        <v>880.78229999999996</v>
+        <v>774.80460000000005</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>228562200</v>
+        <v>579600</v>
       </c>
       <c r="C6">
-        <v>2931300</v>
+        <v>119446200</v>
       </c>
       <c r="D6">
-        <v>153170100</v>
+        <v>364242600</v>
       </c>
       <c r="E6">
-        <v>768264300</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>455457600</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>228.56219999999999</v>
+      <c r="I6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5796</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>2.9312999999999998</v>
+        <v>119.4462</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>153.17009999999999</v>
+        <v>364.24259999999998</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>768.26430000000005</v>
+        <v>455.45760000000001</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1402177500</v>
+        <v>5194800</v>
       </c>
       <c r="C7">
-        <v>6250500</v>
+        <v>1033131600</v>
       </c>
       <c r="D7">
-        <v>230209200</v>
+        <v>293073300</v>
       </c>
       <c r="E7">
-        <v>938236500</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
+        <v>840111300</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1402.1775</v>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>5.1947999999999999</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>6.2504999999999997</v>
+        <v>1033.1315999999999</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>230.20920000000001</v>
+        <v>293.07330000000002</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>938.23649999999998</v>
+        <v>840.11130000000003</v>
       </c>
       <c r="M7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>175940100</v>
+        <v>1636200</v>
       </c>
       <c r="C8">
-        <v>2031300</v>
+        <v>12299400</v>
       </c>
       <c r="D8">
-        <v>26482500</v>
+        <v>8150400</v>
       </c>
       <c r="E8">
-        <v>91724400</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>236127600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>175.9401</v>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6362000000000001</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>2.0312999999999999</v>
+        <v>12.2994</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>26.482500000000002</v>
+        <v>8.1503999999999994</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>91.724400000000003</v>
+        <v>236.1276</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>12343500</v>
+        <v>2361600</v>
       </c>
       <c r="C9">
-        <v>5521500</v>
+        <v>79436700</v>
       </c>
       <c r="D9">
-        <v>40229100</v>
+        <v>192355200</v>
       </c>
       <c r="E9">
-        <v>752584500</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>403045200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>12.343500000000001</v>
+      <c r="I9" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3616000000000001</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>5.5214999999999996</v>
+        <v>79.436700000000002</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>40.229100000000003</v>
+        <v>192.3552</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>752.58450000000005</v>
+        <v>403.04520000000002</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1927292400</v>
+        <v>22649400</v>
       </c>
       <c r="C10">
-        <v>23658300</v>
+        <v>15603300</v>
       </c>
       <c r="D10">
-        <v>221022000</v>
+        <v>1409481900</v>
       </c>
       <c r="E10">
-        <v>922482900</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>1242239400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1927.2924</v>
+      <c r="I10" s="20">
+        <f t="shared" si="0"/>
+        <v>22.6494</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>23.658300000000001</v>
+        <v>15.603300000000001</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>221.02199999999999</v>
+        <v>1409.4819</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>922.48289999999997</v>
+        <v>1242.2393999999999</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1155129300</v>
+        <v>56602800</v>
       </c>
       <c r="C11">
-        <v>28088100</v>
+        <v>709452900</v>
       </c>
       <c r="D11">
-        <v>897485400</v>
+        <v>1423165500</v>
       </c>
       <c r="E11">
-        <v>1561013100</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>876177000</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>1155.1293000000001</v>
+      <c r="I11" s="20">
+        <f t="shared" si="0"/>
+        <v>56.602800000000002</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>28.088100000000001</v>
+        <v>709.4529</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>897.48540000000003</v>
+        <v>1423.1655000000001</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>1561.0130999999999</v>
+        <v>876.17700000000002</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>2273336100</v>
+        <v>153749700</v>
       </c>
       <c r="C12">
-        <v>101592900</v>
+        <v>2873528100</v>
       </c>
       <c r="D12">
-        <v>1293457500</v>
+        <v>1380627000</v>
       </c>
       <c r="E12">
-        <v>2684957400</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>999726300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>2273.3361</v>
+      <c r="I12" s="20">
+        <f t="shared" si="0"/>
+        <v>153.74969999999999</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>101.5929</v>
+        <v>2873.5281</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>1293.4575</v>
+        <v>1380.627</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>2684.9573999999998</v>
+        <v>999.72630000000004</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1390790700</v>
+        <v>14722200</v>
       </c>
       <c r="C13">
-        <v>18103500</v>
+        <v>2330375400</v>
       </c>
       <c r="D13">
-        <v>831041100</v>
+        <v>1176867000</v>
       </c>
       <c r="E13">
-        <v>2390823000</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>475772400</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1390.7907</v>
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
+        <v>14.722200000000001</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>18.1035</v>
+        <v>2330.3753999999999</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>831.04110000000003</v>
+        <v>1176.867</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>2390.8229999999999</v>
+        <v>475.7724</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>270096300</v>
+        <v>31968000</v>
       </c>
       <c r="C14">
-        <v>12977100</v>
+        <v>28800</v>
       </c>
       <c r="D14">
-        <v>175391100</v>
+        <v>633875400</v>
       </c>
       <c r="E14">
-        <v>472986900</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>147110400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>270.09629999999999</v>
+      <c r="I14" s="20">
+        <f t="shared" si="0"/>
+        <v>31.968</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>12.9771</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>175.39109999999999</v>
+        <v>633.87540000000001</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>472.98689999999999</v>
+        <v>147.1104</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>2519222400</v>
+        <v>58050900</v>
       </c>
       <c r="C15">
-        <v>42129000</v>
+        <v>943149600</v>
       </c>
       <c r="D15">
-        <v>425290500</v>
+        <v>539309700</v>
       </c>
       <c r="E15">
-        <v>2179378800</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
+        <v>3012867900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>2519.2224000000001</v>
+      <c r="I15" s="20">
+        <f t="shared" si="0"/>
+        <v>58.050899999999999</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>42.128999999999998</v>
+        <v>943.14959999999996</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>425.29050000000001</v>
+        <v>539.30970000000002</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>2179.3788</v>
+        <v>3012.8679000000002</v>
       </c>
       <c r="M15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>4028789200</v>
+        <v>246600</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>465547500</v>
       </c>
       <c r="D16">
-        <v>55611500</v>
+        <v>98738100</v>
       </c>
       <c r="E16">
-        <v>350863597</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+        <v>112221000</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>4028.7892000000002</v>
+      <c r="I16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.24660000000000001</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>465.54750000000001</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>55.611499999999999</v>
+        <v>98.738100000000003</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>350.86359700000003</v>
+        <v>112.221</v>
       </c>
       <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>255367800</v>
+        <v>690300</v>
       </c>
       <c r="C17">
-        <v>1431900</v>
+        <v>88372800</v>
       </c>
       <c r="D17">
-        <v>75634200</v>
+        <v>9218700</v>
       </c>
       <c r="E17">
-        <v>420111000</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+        <v>533727000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>255.36779999999999</v>
+      <c r="I17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.69030000000000002</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>1.4319</v>
+        <v>88.372799999999998</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>75.634200000000007</v>
+        <v>9.2187000000000001</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>420.11099999999999</v>
+        <v>533.72699999999998</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>149242500</v>
+        <v>7121700</v>
       </c>
       <c r="C18">
-        <v>5744700</v>
+        <v>254916000</v>
       </c>
       <c r="D18">
-        <v>247725900</v>
+        <v>253475100</v>
       </c>
       <c r="E18">
-        <v>394899300</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
+        <v>158661900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>149.24250000000001</v>
+      <c r="I18" s="20">
+        <f t="shared" si="0"/>
+        <v>7.1216999999999997</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>5.7446999999999999</v>
+        <v>254.916</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>247.7259</v>
+        <v>253.4751</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>394.89929999999998</v>
+        <v>158.6619</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>437733900</v>
+        <v>3674700</v>
       </c>
       <c r="C19">
-        <v>7263900</v>
+        <v>508389300</v>
       </c>
       <c r="D19">
-        <v>237933000</v>
+        <v>237665700</v>
       </c>
       <c r="E19">
-        <v>1223338500</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
+        <v>867290400</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>437.73390000000001</v>
+      <c r="I19" s="20">
+        <f t="shared" si="0"/>
+        <v>3.6747000000000001</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>7.2638999999999996</v>
+        <v>508.38929999999999</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>237.93299999999999</v>
+        <v>237.66569999999999</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>1223.3385000000001</v>
+        <v>867.29039999999998</v>
       </c>
       <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>97610400</v>
+        <v>16388100</v>
       </c>
       <c r="C20">
-        <v>18738000</v>
+        <v>243000</v>
       </c>
       <c r="D20">
-        <v>113327100</v>
+        <v>108639000</v>
       </c>
       <c r="E20">
-        <v>575706600</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+        <v>575346600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>97.610399999999998</v>
+      <c r="I20" s="20">
+        <f t="shared" si="0"/>
+        <v>16.388100000000001</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>18.738</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>113.3271</v>
+        <v>108.639</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>575.70659999999998</v>
+        <v>575.34659999999997</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
-        <f>SUM(B2:B20)</f>
-        <v>35975100100</v>
-      </c>
-      <c r="C21" s="9">
-        <f>SUM(C2:C20)</f>
-        <v>483239700</v>
-      </c>
-      <c r="D21" s="9">
-        <f>SUM(D2:D20)</f>
-        <v>8773525400</v>
-      </c>
-      <c r="E21" s="9">
-        <f>SUM(E2:E20)</f>
-        <v>27442956097</v>
-      </c>
-      <c r="F21" s="9">
-        <f>SUM(F2:F20)</f>
-        <v>22</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="12"/>
+      <c r="I21" s="21">
         <f>SUM(I2:I20)</f>
-        <v>35975.100099999996</v>
-      </c>
-      <c r="J21" s="9">
+        <v>638.11169999999993</v>
+      </c>
+      <c r="J21" s="12">
         <f>SUM(J2:J20)</f>
-        <v>483.23969999999997</v>
-      </c>
-      <c r="K21" s="9">
+        <v>20425.677300000003</v>
+      </c>
+      <c r="K21" s="12">
         <f>SUM(K2:K20)</f>
-        <v>8773.5254000000004</v>
-      </c>
-      <c r="L21" s="9">
+        <v>12778.410599999999</v>
+      </c>
+      <c r="L21" s="12">
         <f>SUM(L2:L20)</f>
-        <v>27442.956097000002</v>
-      </c>
-      <c r="M21" s="9">
+        <v>25400.417400000002</v>
+      </c>
+      <c r="M21" s="12">
         <f>SUM(M2:M20)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.26161380016286134</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
-        <v>0.62643812545694244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="4">
+        <v>0.26161380016286229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="4">
-        <v>0.39242472502600795</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="4">
+        <v>6.8441780435654034E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4">
-        <v>0.21883178931915306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="4">
+        <v>1.3644238108339571E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
-        <v>2.3246982992774359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="4">
+        <v>1.7972676250732478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B33" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4.034462846733291</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4.034462846733291</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.2489936141084639</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.27929056635971605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <v>17</v>
+      </c>
+      <c r="C38" s="4">
+        <v>54.912905574319353</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.2301709161364327</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5">
+        <v>58.947368421052644</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.67619054364332876</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.47842068435126117</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1.4133806621681579</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.17559332267138494</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-0.33318886895863831</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1.6855699562452959</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-0.33318886895863831</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.6855699562452959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2.5225012591267913E-4</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.2571025048966054E-4</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1.1175838286716817</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.2792905663597185</v>
+      </c>
+      <c r="F43" s="5">
+        <v>-2.2395687664706671E-4</v>
+      </c>
+      <c r="G43" s="5">
+        <v>7.2845712847242504E-4</v>
+      </c>
+      <c r="H43" s="5">
+        <v>-2.2395687664706671E-4</v>
+      </c>
+      <c r="I43" s="5">
+        <v>7.2845712847242504E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1.070174238778459</v>
+      </c>
+      <c r="C50" s="4">
+        <v>-1.070174238778459</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-0.61270797485929407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1.0323777357620305</v>
+      </c>
+      <c r="C51" s="4">
+        <v>-3.2377735762030513E-2</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-1.8537258878448693E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>3</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2.6975456451939848</v>
+      </c>
+      <c r="C52" s="4">
+        <v>-0.69754564519398476</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-0.3993665369169872</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
         <v>4</v>
       </c>
-      <c r="C36" s="4">
-        <v>48.867205232186038</v>
-      </c>
-      <c r="D36" s="4">
-        <v>12.216801308046509</v>
-      </c>
-      <c r="E36" s="4">
-        <v>2.2606030794288352</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.11451996778420062</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="B53" s="4">
+        <v>0.67733656641537521</v>
+      </c>
+      <c r="C53" s="4">
+        <v>-0.67733656641537521</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-0.38779621193294778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>5</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.70632086263311977</v>
+      </c>
+      <c r="C54" s="4">
+        <v>-0.70632086263311977</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-0.40439062132423242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>6</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.93679811982769645</v>
+      </c>
+      <c r="C55" s="4">
+        <v>5.0632018801723033</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2.8988402616056193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>7</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.67929306884197915</v>
+      </c>
+      <c r="C56" s="4">
+        <v>-0.67929306884197915</v>
+      </c>
+      <c r="D56" s="4">
+        <v>-0.38891637031106391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>8</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.69622846122041648</v>
+      </c>
+      <c r="C57" s="4">
+        <v>-0.69622846122041648</v>
+      </c>
+      <c r="D57" s="4">
+        <v>-0.39861240820063598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>9</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.6801264780329821</v>
+      </c>
+      <c r="C58" s="4">
+        <v>-0.6801264780329821</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-0.38939352294578949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>10</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.85515012699744408</v>
+      </c>
+      <c r="C59" s="4">
+        <v>-0.85515012699744408</v>
+      </c>
+      <c r="D59" s="4">
+        <v>-0.48959999552160649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>11</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1.4010383686819505</v>
+      </c>
+      <c r="C60" s="4">
+        <v>-1.4010383686819505</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-0.80213796078209787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>12</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1.2640280317171388</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1.7359719682828612</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.99389784444183749</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>13</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.6761978084469551</v>
+      </c>
+      <c r="C62" s="4">
+        <v>-0.6761978084469551</v>
+      </c>
+      <c r="D62" s="4">
+        <v>-0.38714423764371242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
         <v>14</v>
       </c>
-      <c r="C37" s="4">
-        <v>75.659110557287633</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5.4042221826634025</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="B63" s="4">
+        <v>0.91410014899782177</v>
+      </c>
+      <c r="C63" s="4">
+        <v>4.0858998510021785</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2.3393045099300771</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>15</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.79362495913666176</v>
+      </c>
+      <c r="C64" s="4">
+        <v>-0.79362495913666176</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-0.45437492689550413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>16</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.69848259357058473</v>
+      </c>
+      <c r="C65" s="4">
+        <v>-0.69848259357058473</v>
+      </c>
+      <c r="D65" s="4">
+        <v>-0.39990296894980226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>17</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.74049313674048522</v>
+      </c>
+      <c r="C66" s="4">
+        <v>-0.74049313674048522</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-0.42395530911615653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
         <v>18</v>
       </c>
-      <c r="C38" s="5">
-        <v>124.52631578947367</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="4">
-        <v>2.058855842034113E-2</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.81356729192076882</v>
-      </c>
-      <c r="D41" s="4">
-        <v>2.5306521814235122E-2</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.98016765113907955</v>
-      </c>
-      <c r="F41" s="4">
-        <v>-1.7243397390166622</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1.7655168558573444</v>
-      </c>
-      <c r="H41" s="4">
-        <v>-1.7243397390166622</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1.7655168558573444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="4">
-        <v>-2.0204574308662196E-5</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3.3901755254263567E-4</v>
-      </c>
-      <c r="D42" s="4">
-        <v>-5.959742838424633E-2</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.95331863855968391</v>
-      </c>
-      <c r="F42" s="4">
-        <v>-7.4732490797258194E-4</v>
-      </c>
-      <c r="G42" s="4">
-        <v>7.0691575935525762E-4</v>
-      </c>
-      <c r="H42" s="4">
-        <v>-7.4732490797258194E-4</v>
-      </c>
-      <c r="I42" s="4">
-        <v>7.0691575935525762E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="4">
-        <v>4.4538369329249761E-2</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3.9653913915006812E-2</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1.1231771326460274</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0.28025449900587263</v>
-      </c>
-      <c r="F43" s="4">
-        <v>-4.0510817359495438E-2</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0.12958755601799496</v>
-      </c>
-      <c r="H43" s="4">
-        <v>-4.0510817359495438E-2</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0.12958755601799496</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="4">
-        <v>-9.025501182599302E-3</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3.7979047017587218E-3</v>
-      </c>
-      <c r="D44" s="4">
-        <v>-2.3764422468051398</v>
-      </c>
-      <c r="E44" s="4">
-        <v>3.2291989969041347E-2</v>
-      </c>
-      <c r="F44" s="4">
-        <v>-1.7171196628911846E-2</v>
-      </c>
-      <c r="G44" s="4">
-        <v>-8.7980573628675639E-4</v>
-      </c>
-      <c r="H44" s="4">
-        <v>-1.7171196628911846E-2</v>
-      </c>
-      <c r="I44" s="4">
-        <v>-8.7980573628675639E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="5">
-        <v>2.9150808072786276E-3</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1.3235390513442577E-3</v>
-      </c>
-      <c r="D45" s="5">
-        <v>2.2024894575780851</v>
-      </c>
-      <c r="E45" s="5">
-        <v>4.4890303738303265E-2</v>
-      </c>
-      <c r="F45" s="5">
-        <v>7.6371869016104293E-5</v>
-      </c>
-      <c r="G45" s="5">
-        <v>5.753789745541151E-3</v>
-      </c>
-      <c r="H45" s="5">
-        <v>7.6371869016104293E-5</v>
-      </c>
-      <c r="I45" s="5">
-        <v>5.753789745541151E-3</v>
+      <c r="B67" s="4">
+        <v>0.80443180858098762</v>
+      </c>
+      <c r="C67" s="4">
+        <v>-0.80443180858098762</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-0.46056218369697616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="5">
+        <v>19</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.6762518404239255</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.3237481595760745</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.18535587199772255</v>
       </c>
     </row>
   </sheetData>
@@ -5467,25 +5416,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5504,12 +5455,2433 @@
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1604352600</v>
+      </c>
+      <c r="C2">
+        <v>14456700</v>
+      </c>
+      <c r="D2">
+        <v>425632500</v>
+      </c>
+      <c r="E2">
+        <v>430220700</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>B2/N1</f>
+        <v>1604.3525999999999</v>
+      </c>
+      <c r="J2">
+        <f>C2/N$1</f>
+        <v>14.4567</v>
+      </c>
+      <c r="K2">
+        <f>D2/N$1</f>
+        <v>425.63249999999999</v>
+      </c>
+      <c r="L2">
+        <f>E2/N$1</f>
+        <v>430.22070000000002</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>857592900</v>
+      </c>
+      <c r="C3">
+        <v>7683300</v>
+      </c>
+      <c r="D3">
+        <v>391833000</v>
+      </c>
+      <c r="E3">
+        <v>3135892500</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <f>B3/$N1</f>
+        <v>857.59289999999999</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="0">C3/N$1</f>
+        <v>7.6833</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K20" si="1">D3/N$1</f>
+        <v>391.83300000000003</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="2">E3/N$1</f>
+        <v>3135.8924999999999</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3634570700</v>
+      </c>
+      <c r="C4">
+        <v>135021600</v>
+      </c>
+      <c r="D4">
+        <v>2739554100</v>
+      </c>
+      <c r="E4">
+        <v>6067030500</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <f>B4/N$1</f>
+        <v>3634.5707000000002</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>135.02160000000001</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>2739.5540999999998</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>6067.0304999999998</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>43713900</v>
+      </c>
+      <c r="C5">
+        <v>2482200</v>
+      </c>
+      <c r="D5">
+        <v>120531600</v>
+      </c>
+      <c r="E5">
+        <v>757712700</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f>B5/N$1</f>
+        <v>43.713900000000002</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2.4822000000000002</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>120.5316</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>757.71270000000004</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>57552300</v>
+      </c>
+      <c r="C6">
+        <v>60300</v>
+      </c>
+      <c r="D6">
+        <v>93150000</v>
+      </c>
+      <c r="E6">
+        <v>788974200</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I20" si="3">B6/N$1</f>
+        <v>57.552300000000002</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>93.15</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>788.9742</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>841454100</v>
+      </c>
+      <c r="C7">
+        <v>2938500</v>
+      </c>
+      <c r="D7">
+        <v>119272500</v>
+      </c>
+      <c r="E7">
+        <v>1207826100</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>841.45410000000004</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>2.9384999999999999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>119.27249999999999</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1207.8261</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>101568600</v>
+      </c>
+      <c r="C8">
+        <v>1137600</v>
+      </c>
+      <c r="D8">
+        <v>4760100</v>
+      </c>
+      <c r="E8">
+        <v>150751800</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>101.5686</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.1375999999999999</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>4.7601000000000004</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>150.7518</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>334800</v>
+      </c>
+      <c r="C9">
+        <v>531000</v>
+      </c>
+      <c r="D9">
+        <v>93078000</v>
+      </c>
+      <c r="E9">
+        <v>583270200</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>93.078000000000003</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>583.27020000000005</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1004076900</v>
+      </c>
+      <c r="C10">
+        <v>17011800</v>
+      </c>
+      <c r="D10">
+        <v>157992300</v>
+      </c>
+      <c r="E10">
+        <v>1510884900</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1004.0769</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>17.011800000000001</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>157.9923</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>1510.8849</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>629039700</v>
+      </c>
+      <c r="C11">
+        <v>54700200</v>
+      </c>
+      <c r="D11">
+        <v>1586780100</v>
+      </c>
+      <c r="E11">
+        <v>794884500</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>629.03970000000004</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>54.700200000000002</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>1586.7800999999999</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>794.8845</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>3062799000</v>
+      </c>
+      <c r="C12">
+        <v>152545500</v>
+      </c>
+      <c r="D12">
+        <v>923670000</v>
+      </c>
+      <c r="E12">
+        <v>1268541000</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>3062.799</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>152.5455</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>923.67</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1268.5409999999999</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>2230324200</v>
+      </c>
+      <c r="C13">
+        <v>12795300</v>
+      </c>
+      <c r="D13">
+        <v>699399900</v>
+      </c>
+      <c r="E13">
+        <v>1055257200</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>2230.3242</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>12.795299999999999</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>699.3999</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>1055.2572</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>151567200</v>
+      </c>
+      <c r="C14">
+        <v>38716200</v>
+      </c>
+      <c r="D14">
+        <v>74426400</v>
+      </c>
+      <c r="E14">
+        <v>548283600</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>151.56720000000001</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>38.716200000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>74.426400000000001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>548.28359999999998</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1859973300</v>
+      </c>
+      <c r="C15">
+        <v>44938800</v>
+      </c>
+      <c r="D15">
+        <v>159345000</v>
+      </c>
+      <c r="E15">
+        <v>2489112900</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1859.9733000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>44.938800000000001</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>159.345</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>2489.1129000000001</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>436482000</v>
+      </c>
+      <c r="C16">
+        <v>179100</v>
+      </c>
+      <c r="D16">
+        <v>94502700</v>
+      </c>
+      <c r="E16">
+        <v>152840700</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>436.48200000000003</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>94.502700000000004</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>152.8407</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>118106100</v>
+      </c>
+      <c r="C17">
+        <v>548100</v>
+      </c>
+      <c r="D17">
+        <v>239813100</v>
+      </c>
+      <c r="E17">
+        <v>273560400</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>118.1061</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.54810000000000003</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>239.81309999999999</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>273.56040000000002</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>245495700</v>
+      </c>
+      <c r="C18">
+        <v>6324300</v>
+      </c>
+      <c r="D18">
+        <v>196450200</v>
+      </c>
+      <c r="E18">
+        <v>225918000</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>245.4957</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>6.3243</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>196.4502</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>225.91800000000001</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>186310800</v>
+      </c>
+      <c r="C19">
+        <v>2062800</v>
+      </c>
+      <c r="D19">
+        <v>461115000</v>
+      </c>
+      <c r="E19">
+        <v>967554900</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>186.3108</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>2.0628000000000002</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>461.11500000000001</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>967.55489999999998</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>157595400</v>
+      </c>
+      <c r="C20">
+        <v>12267900</v>
+      </c>
+      <c r="D20">
+        <v>102309300</v>
+      </c>
+      <c r="E20">
+        <v>428470200</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>157.59540000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>12.267899999999999</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>102.30929999999999</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>428.47019999999998</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12">
+        <f>SUM(I2:I20)</f>
+        <v>17222.910199999995</v>
+      </c>
+      <c r="J21" s="12">
+        <f>SUM(J2:J20)</f>
+        <v>506.40120000000002</v>
+      </c>
+      <c r="K21" s="12">
+        <f>SUM(K2:K20)</f>
+        <v>8683.6158000000014</v>
+      </c>
+      <c r="L21" s="12">
+        <f>SUM(L2:L20)</f>
+        <v>22836.987000000001</v>
+      </c>
+      <c r="M21" s="12">
+        <f>SUM(M2:M20)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.69080269928722482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.47720836934251593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.32783933201180621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1.8311039871237251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4">
+        <v>42.848288320964826</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10.712072080241207</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3.1948279099232271</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4.6327194552274215E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4">
+        <v>46.941185363245651</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.3529418116604037</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5">
+        <v>89.789473684210478</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.22632785388346455</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.67740307822052115</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.33411105021549076</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.74324795126079546</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-1.2265572506384523</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1.6792129584053814</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-1.2265572506384523</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.6792129584053814</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>3.3965967458663278E-4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.960800255016714E-4</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.8575531526903506</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.40558081906377641</v>
+      </c>
+      <c r="F43" s="4">
+        <v>-5.0984749145949648E-4</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1.1891668406327621E-3</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-5.0984749145949648E-4</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1.1891668406327621E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <v>-2.6009903747940284E-3</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1.5168941816670738E-2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-0.17146814894731338</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.86630939807505236</v>
+      </c>
+      <c r="F44" s="4">
+        <v>-3.5135134852989143E-2</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2.993315410340109E-2</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-3.5135134852989143E-2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2.993315410340109E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-1.4534157963262291E-3</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1.3426167031654424E-3</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-1.0825247391154598</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.2973127538555197</v>
+      </c>
+      <c r="F45" s="4">
+        <v>-4.3330422282515605E-3</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1.426210635599102E-3</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-4.3330422282515605E-3</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.426210635599102E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5">
+        <v>9.3669515056050176E-4</v>
+      </c>
+      <c r="C46" s="5">
+        <v>6.229708121188505E-4</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1.5035939603247397</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.15490646959963508</v>
+      </c>
+      <c r="F46" s="5">
+        <v>-3.9944435423335239E-4</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2.2728346553543559E-3</v>
+      </c>
+      <c r="H46" s="5">
+        <v>-3.9944435423335239E-4</v>
+      </c>
+      <c r="I46" s="5">
+        <v>2.2728346553543559E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O45"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2">
+        <v>1534433200</v>
+      </c>
+      <c r="C2">
+        <v>14997600</v>
+      </c>
+      <c r="D2">
+        <v>320272200</v>
+      </c>
+      <c r="E2">
+        <v>802157400</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>B2/O$2</f>
+        <v>1534.4331999999999</v>
+      </c>
+      <c r="J2">
+        <f>C2/O$2</f>
+        <v>14.9976</v>
+      </c>
+      <c r="K2">
+        <f>D2/O$2</f>
+        <v>320.2722</v>
+      </c>
+      <c r="L2">
+        <f>E2/O$2</f>
+        <v>802.15740000000005</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1626832800</v>
+      </c>
+      <c r="C3">
+        <v>17022600</v>
+      </c>
+      <c r="D3">
+        <v>767100600</v>
+      </c>
+      <c r="E3">
+        <v>2860431300</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I20" si="0">B3/O$2</f>
+        <v>1626.8327999999999</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="1">C3/O$2</f>
+        <v>17.022600000000001</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K20" si="2">D3/O$2</f>
+        <v>767.10059999999999</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="3">E3/O$2</f>
+        <v>2860.4313000000002</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2220096100</v>
+      </c>
+      <c r="C4">
+        <v>170436600</v>
+      </c>
+      <c r="D4">
+        <v>2568812400</v>
+      </c>
+      <c r="E4">
+        <v>7172214300</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2220.0961000000002</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>170.4366</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>2568.8123999999998</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>7172.2142999999996</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>70103700</v>
+      </c>
+      <c r="C5">
+        <v>4320900</v>
+      </c>
+      <c r="D5">
+        <v>93330000</v>
+      </c>
+      <c r="E5">
+        <v>880782300</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>70.103700000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>4.3209</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>93.33</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>880.78229999999996</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>28562200</v>
+      </c>
+      <c r="C6">
+        <v>2931300</v>
+      </c>
+      <c r="D6">
+        <v>153170100</v>
+      </c>
+      <c r="E6">
+        <v>768264300</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>28.562200000000001</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>2.9312999999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>153.17009999999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>768.26430000000005</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>402177500</v>
+      </c>
+      <c r="C7">
+        <v>6250500</v>
+      </c>
+      <c r="D7">
+        <v>230209200</v>
+      </c>
+      <c r="E7">
+        <v>938236500</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>402.17750000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>6.2504999999999997</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>230.20920000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>938.23649999999998</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>75940100</v>
+      </c>
+      <c r="C8">
+        <v>2031300</v>
+      </c>
+      <c r="D8">
+        <v>26482500</v>
+      </c>
+      <c r="E8">
+        <v>91724400</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>75.940100000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>2.0312999999999999</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>26.482500000000002</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>91.724400000000003</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>12343500</v>
+      </c>
+      <c r="C9">
+        <v>5521500</v>
+      </c>
+      <c r="D9">
+        <v>40229100</v>
+      </c>
+      <c r="E9">
+        <v>752584500</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>12.343500000000001</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>5.5214999999999996</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>40.229100000000003</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>752.58450000000005</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1927292400</v>
+      </c>
+      <c r="C10">
+        <v>23658300</v>
+      </c>
+      <c r="D10">
+        <v>221022000</v>
+      </c>
+      <c r="E10">
+        <v>922482900</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1927.2924</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>23.658300000000001</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>221.02199999999999</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>922.48289999999997</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1155129300</v>
+      </c>
+      <c r="C11">
+        <v>28088100</v>
+      </c>
+      <c r="D11">
+        <v>897485400</v>
+      </c>
+      <c r="E11">
+        <v>1561013100</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1155.1293000000001</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>28.088100000000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>897.48540000000003</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>1561.0130999999999</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2273336100</v>
+      </c>
+      <c r="C12">
+        <v>101592900</v>
+      </c>
+      <c r="D12">
+        <v>1293457500</v>
+      </c>
+      <c r="E12">
+        <v>2684957400</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2273.3361</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>101.5929</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>1293.4575</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>2684.9573999999998</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1390790700</v>
+      </c>
+      <c r="C13">
+        <v>18103500</v>
+      </c>
+      <c r="D13">
+        <v>831041100</v>
+      </c>
+      <c r="E13">
+        <v>2390823000</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1390.7907</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>18.1035</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>831.04110000000003</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>2390.8229999999999</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>270096300</v>
+      </c>
+      <c r="C14">
+        <v>12977100</v>
+      </c>
+      <c r="D14">
+        <v>175391100</v>
+      </c>
+      <c r="E14">
+        <v>472986900</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>270.09629999999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>12.9771</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>175.39109999999999</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>472.98689999999999</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1619222400</v>
+      </c>
+      <c r="C15">
+        <v>42129000</v>
+      </c>
+      <c r="D15">
+        <v>425290500</v>
+      </c>
+      <c r="E15">
+        <v>2179378800</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1619.2224000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>42.128999999999998</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>425.29050000000001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>2179.3788</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>428789200</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>55611500</v>
+      </c>
+      <c r="E16">
+        <v>350863597</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>428.78919999999999</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>55.611499999999999</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>350.86359700000003</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>255367800</v>
+      </c>
+      <c r="C17">
+        <v>1431900</v>
+      </c>
+      <c r="D17">
+        <v>75634200</v>
+      </c>
+      <c r="E17">
+        <v>420111000</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>255.36779999999999</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1.4319</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>75.634200000000007</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>420.11099999999999</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>149242500</v>
+      </c>
+      <c r="C18">
+        <v>5744700</v>
+      </c>
+      <c r="D18">
+        <v>247725900</v>
+      </c>
+      <c r="E18">
+        <v>394899300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>149.24250000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>5.7446999999999999</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>247.7259</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>394.89929999999998</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>437733900</v>
+      </c>
+      <c r="C19">
+        <v>7263900</v>
+      </c>
+      <c r="D19">
+        <v>237933000</v>
+      </c>
+      <c r="E19">
+        <v>1223338500</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>437.73390000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>7.2638999999999996</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>237.93299999999999</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>1223.3385000000001</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>97610400</v>
+      </c>
+      <c r="C20">
+        <v>18738000</v>
+      </c>
+      <c r="D20">
+        <v>113327100</v>
+      </c>
+      <c r="E20">
+        <v>575706600</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>97.610399999999998</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>18.738</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>113.3271</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>575.70659999999998</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9">
+        <f>SUM(B2:B20)</f>
+        <v>15975100100</v>
+      </c>
+      <c r="C21" s="9">
+        <f>SUM(C2:C20)</f>
+        <v>483239700</v>
+      </c>
+      <c r="D21" s="9">
+        <f>SUM(D2:D20)</f>
+        <v>8773525400</v>
+      </c>
+      <c r="E21" s="9">
+        <f>SUM(E2:E20)</f>
+        <v>27442956097</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9">
+        <f>SUM(I2:I20)</f>
+        <v>15975.100099999998</v>
+      </c>
+      <c r="J21" s="9">
+        <f>SUM(J2:J20)</f>
+        <v>483.23969999999997</v>
+      </c>
+      <c r="K21" s="9">
+        <f>SUM(K2:K20)</f>
+        <v>8773.5254000000004</v>
+      </c>
+      <c r="L21" s="9">
+        <f>SUM(L2:L20)</f>
+        <v>27442.956097000002</v>
+      </c>
+      <c r="M21" s="9">
+        <f>SUM(M2:M20)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.62643812545694244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.39242472502600795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.21883178931915306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2.3246982992774359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4">
+        <v>48.867205232186038</v>
+      </c>
+      <c r="D36" s="4">
+        <v>12.216801308046509</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2.2606030794288352</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.11451996778420062</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4">
+        <v>75.659110557287633</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5.4042221826634025</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5">
+        <v>18</v>
+      </c>
+      <c r="C38" s="5">
+        <v>124.52631578947367</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2.058855842034113E-2</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.81356729192076882</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2.5306521814235122E-2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.98016765113907955</v>
+      </c>
+      <c r="F41" s="4">
+        <v>-1.7243397390166622</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1.7655168558573444</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-1.7243397390166622</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1.7655168558573444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4">
+        <v>-2.0204574308662196E-5</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3.3901755254263567E-4</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-5.959742838424633E-2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.95331863855968391</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-7.4732490797258194E-4</v>
+      </c>
+      <c r="G42" s="4">
+        <v>7.0691575935525762E-4</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-7.4732490797258194E-4</v>
+      </c>
+      <c r="I42" s="4">
+        <v>7.0691575935525762E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4.4538369329249761E-2</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.9653913915006812E-2</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1.1231771326460274</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.28025449900587263</v>
+      </c>
+      <c r="F43" s="4">
+        <v>-4.0510817359495438E-2</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.12958755601799496</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-4.0510817359495438E-2</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.12958755601799496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>-9.025501182599302E-3</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3.7979047017587218E-3</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-2.3764422468051398</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3.2291989969041347E-2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>-1.7171196628911846E-2</v>
+      </c>
+      <c r="G44" s="4">
+        <v>-8.7980573628675639E-4</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-1.7171196628911846E-2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>-8.7980573628675639E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2.9150808072786276E-3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.3235390513442577E-3</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2.2024894575780851</v>
+      </c>
+      <c r="E45" s="11">
+        <v>4.4890303738303265E-2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>7.6371869016104293E-5</v>
+      </c>
+      <c r="G45" s="5">
+        <v>5.753789745541151E-3</v>
+      </c>
+      <c r="H45" s="5">
+        <v>7.6371869016104293E-5</v>
+      </c>
+      <c r="I45" s="5">
+        <v>5.753789745541151E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>1426320900</v>
       </c>
       <c r="C2">
@@ -5524,13 +7896,38 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>B$2/O2</f>
+        <v>1426.3208999999999</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J20" si="0">C2/O$2</f>
+        <v>7.4466000000000001</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K20" si="1">D2/O$2</f>
+        <v>300.5163</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="2">E2/O$2</f>
+        <v>740.3913</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>151901100</v>
+        <v>1510901100</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5545,13 +7942,36 @@
         <f>1+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I20" si="3">B3/O$2</f>
+        <v>1510.9011</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>1801.3158000000001</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>2439.7892999999999</v>
+      </c>
+      <c r="M3">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>10520303400</v>
+        <v>1520303400</v>
       </c>
       <c r="C4">
         <v>59224500</v>
@@ -5566,8 +7986,30 @@
         <f>1+1+1+1+5+3+1+1+5+1+1</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1520.3034</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>59.224499999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4380.5915999999997</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>7576.9155000000001</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -5586,13 +8028,35 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>20.9133</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>77.093999999999994</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>826.41959999999995</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>9132300</v>
+        <v>92132300</v>
       </c>
       <c r="D6">
         <v>263955600</v>
@@ -5603,8 +8067,30 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>92.132300000000001</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>263.9556</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>666.62459999999999</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -5624,8 +8110,31 @@
         <f>1+1+1+1+1+1+1</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1035.9729</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.9152</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>418.90410000000003</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>714.69899999999996</v>
+      </c>
+      <c r="M7">
+        <f>1+1+1+1+1+1+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -5644,13 +8153,35 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>72.303299999999993</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>66.705299999999994</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>119.1996</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1352700</v>
+        <v>10352700</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5664,13 +8195,35 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>10.3527</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>422.35739999999998</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>208.3194</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>743946300</v>
+        <v>1363946300</v>
       </c>
       <c r="C10">
         <v>4329000</v>
@@ -5684,8 +8237,30 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1363.9463000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>4.3289999999999997</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>431.91359999999997</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>1509.7671</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -5704,8 +8279,30 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>869.94449999999995</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>48.854700000000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>600.86249999999995</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>1545.7356</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -5724,13 +8321,35 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>2112.7563</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>109.80540000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>1880.0676000000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1304.9154000000001</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>560182500</v>
+        <v>1160182500</v>
       </c>
       <c r="C13">
         <v>3641400</v>
@@ -5744,8 +8363,30 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1160.1824999999999</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>3.6414</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1971.3006</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>1462.6179</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -5764,8 +8405,30 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>154.69829999999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>26.2818</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>156.2193</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>475.79939999999999</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -5785,8 +8448,30 @@
         <f>2+3+5</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1863.1179</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>29.0916</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>588.87630000000001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>2072.2842000000001</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -5805,13 +8490,35 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>422.87939999999998</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>105.6114</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>149.14259999999999</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1352700</v>
+        <v>100352700</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5825,8 +8532,30 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>100.3527</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>422.35739999999998</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>208.3194</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -5845,13 +8574,35 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>181.1781</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>3.7602000000000002</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>135.0369</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>354.21749999999997</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>90822600</v>
+        <v>290822600</v>
       </c>
       <c r="C19">
         <v>90000</v>
@@ -5865,13 +8616,35 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>290.82260000000002</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>381.97800000000001</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>1144.1277</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>24641100</v>
+        <v>54641100</v>
       </c>
       <c r="C20">
         <v>4684500</v>
@@ -5885,12 +8658,34 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>54.641100000000002</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>4.6844999999999999</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>84.765600000000006</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>586.5471</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9">
         <f>SUM(B2:B20)</f>
-        <v>20263719600</v>
+        <v>14263719600</v>
       </c>
       <c r="C21" s="9">
         <f>SUM(C2:C20)</f>
@@ -5908,529 +8703,43 @@
         <f>SUM(F2:F20)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="H21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="9">
+        <f>SUM(I2:I20)</f>
+        <v>14263.719599999995</v>
+      </c>
+      <c r="J21" s="9">
+        <f>SUM(J2:J20)</f>
+        <v>299.12489999999997</v>
+      </c>
+      <c r="K21" s="9">
+        <f>SUM(K2:K20)</f>
+        <v>14490.4293</v>
+      </c>
+      <c r="L21" s="9">
+        <f>SUM(L2:L20)</f>
+        <v>24105.832199999997</v>
+      </c>
+      <c r="M21" s="9">
+        <f>SUM(M2:M20)</f>
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <f>B$2/H24</f>
-        <v>1426.3208999999999</v>
-      </c>
-      <c r="C24">
-        <f>C2/H$24</f>
-        <v>7.4466000000000001</v>
-      </c>
-      <c r="D24">
-        <f>D2/H$24</f>
-        <v>300.5163</v>
-      </c>
-      <c r="E24">
-        <f>E2/H$24</f>
-        <v>740.3913</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:B42" si="0">B3/H$24</f>
-        <v>151.90110000000001</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:C42" si="1">C3/H$24</f>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25:D42" si="2">D3/H$24</f>
-        <v>1801.3158000000001</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25:E42" si="3">E3/H$24</f>
-        <v>2439.7892999999999</v>
-      </c>
-      <c r="F25">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>10520.303400000001</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>59.224499999999999</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>4380.5915999999997</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="3"/>
-        <v>7576.9155000000001</v>
-      </c>
-      <c r="F26">
-        <f>1+1+1+1+5+3+1+1+5+1+1</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>20.9133</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>77.093999999999994</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="3"/>
-        <v>826.41959999999995</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>9.1323000000000008</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>263.9556</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="3"/>
-        <v>666.62459999999999</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>1035.9729</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>1.9152</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>418.90410000000003</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="3"/>
-        <v>714.69899999999996</v>
-      </c>
-      <c r="F29">
-        <f>1+1+1+1+1+1+1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>72.303299999999993</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>66.705299999999994</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="3"/>
-        <v>119.1996</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>1.3527</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>422.35739999999998</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
-        <v>208.3194</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>743.94629999999995</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>4.3289999999999997</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>431.91359999999997</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>1509.7671</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>869.94449999999995</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>48.854700000000001</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>600.86249999999995</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="3"/>
-        <v>1545.7356</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>2112.7563</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>109.80540000000001</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>1880.0676000000001</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
-        <v>1304.9154000000001</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>560.1825</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>3.6414</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>1971.3006</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>1462.6179</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>154.69829999999999</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>26.2818</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>156.2193</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>475.79939999999999</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>1863.1179</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>29.0916</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>588.87630000000001</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>2072.2842000000001</v>
-      </c>
-      <c r="F37">
-        <f>2+3+5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>422.87939999999998</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>105.6114</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="3"/>
-        <v>149.14259999999999</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>1.3527</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>422.35739999999998</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>208.3194</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>181.1781</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>3.7602000000000002</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>135.0369</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>354.21749999999997</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>90.822599999999994</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
-        <v>0.09</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>381.97800000000001</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="3"/>
-        <v>1144.1277</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>24.641100000000002</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
-        <v>4.6844999999999999</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>84.765600000000006</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>586.5471</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="9">
-        <f>SUM(B24:B42)</f>
-        <v>20263.7196</v>
-      </c>
-      <c r="C43" s="9">
-        <f>SUM(C24:C42)</f>
-        <v>299.12489999999997</v>
-      </c>
-      <c r="D43" s="9">
-        <f>SUM(D24:D42)</f>
-        <v>14490.4293</v>
-      </c>
-      <c r="E43" s="9">
-        <f>SUM(E24:E42)</f>
-        <v>24105.832199999997</v>
-      </c>
-      <c r="F43" s="9">
-        <f>SUM(F24:F42)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
@@ -6438,7 +8747,7 @@
         <v>0.92325140749616263</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>29</v>
       </c>
@@ -6446,7 +8755,7 @@
         <v>0.8523931614436453</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>30</v>
       </c>
@@ -6454,7 +8763,7 @@
         <v>0.81021977899897257</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>31</v>
       </c>
@@ -6462,7 +8771,7 @@
         <v>2.2831671063091976</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>32</v>
       </c>
@@ -6470,12 +8779,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
         <v>37</v>
@@ -6493,7 +8802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>34</v>
       </c>
@@ -6513,7 +8822,7 @@
         <v>1.063593585283103E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>35</v>
       </c>
@@ -6529,7 +8838,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>5</v>
       </c>
@@ -6543,8 +8852,8 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
         <v>42</v>
@@ -6571,7 +8880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>36</v>
       </c>
@@ -6600,7 +8909,7 @@
         <v>1.8519217963546957</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>50</v>
       </c>
@@ -6613,7 +8922,7 @@
       <c r="D64" s="4">
         <v>2.4670454239670874</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="10">
         <v>2.7138432749627694E-2</v>
       </c>
       <c r="F64" s="4">
@@ -6629,7 +8938,7 @@
         <v>3.0721957287079245E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>51</v>
       </c>
@@ -6658,7 +8967,7 @@
         <v>2.1043256102518598E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>52</v>
       </c>
@@ -6687,7 +8996,7 @@
         <v>1.7663925045235298E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
